--- a/main/StructureDefinition-bc-merge-patient.xlsx
+++ b/main/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:40:13+00:00</t>
+    <t>2024-10-07T22:34:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-merge-patient.xlsx
+++ b/main/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T22:34:38+00:00</t>
+    <t>2024-10-11T20:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-merge-patient.xlsx
+++ b/main/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:53:55+00:00</t>
+    <t>2024-10-11T23:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -546,10 +546,10 @@
     <t>Person.ethnicGroupCode</t>
   </si>
   <si>
-    <t>Patient.extension:effectiveDates</t>
-  </si>
-  <si>
-    <t>effectiveDates</t>
+    <t>Patient.extension:patientEffectiveDates</t>
+  </si>
+  <si>
+    <t>patientEffectiveDates</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-business-period-extension}

--- a/main/StructureDefinition-bc-merge-patient.xlsx
+++ b/main/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:14:19+00:00</t>
+    <t>2024-10-11T23:23:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-merge-patient.xlsx
+++ b/main/StructureDefinition-bc-merge-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:23:09+00:00</t>
+    <t>2024-10-11T23:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-merge-patient.xlsx
+++ b/main/StructureDefinition-bc-merge-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$109</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="708">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:26:29+00:00</t>
+    <t>2025-08-27T22:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -562,22 +562,6 @@
     <t>The effective dates for the parent element.</t>
   </si>
   <si>
-    <t>Patient.extension:genderIdentity</t>
-  </si>
-  <si>
-    <t>genderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hlth.gov.bc.ca/fhir/client/StructureDefinition/bc-gender-identity-extension}
-</t>
-  </si>
-  <si>
-    <t>BC Gender Identity with business dates.</t>
-  </si>
-  <si>
-    <t>Gender Identity with business dates.</t>
-  </si>
-  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -632,10 +616,10 @@
     <t>JHN</t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+    <t>Jurisdictional Health Number</t>
+  </si>
+  <si>
+    <t>Federal patient and person health numbers used by all jurisdictions across Canada</t>
   </si>
   <si>
     <t>Patient.identifier:JHN.id</t>
@@ -939,7 +923,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ca-baseline-name:Patient.name.given  or Patient.name.family or both SHALL be present {family.exists() or given.exists()}</t>
+ipa-pat-2:Either Patient.name.given and/or Patient.name.family and/or Patient.name.text SHALL be present or a Data Absent Reason Extension SHALL be present. {(family.exists() or given.exists() or text.exists()) xor extension.where(url='http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
   </si>
   <si>
     <t>name</t>
@@ -2556,7 +2540,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO110"/>
+  <dimension ref="A1:AO109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2565,17 +2549,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.91796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.65234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2584,27 +2568,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="86.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4262,41 +4246,43 @@
         <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -4332,19 +4318,19 @@
         <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4359,7 +4345,7 @@
         <v>144</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -4383,38 +4369,36 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4451,11 +4435,9 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
@@ -4463,7 +4445,7 @@
         <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4475,19 +4457,19 @@
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -4495,24 +4477,26 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>80</v>
@@ -4521,17 +4505,17 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4568,17 +4552,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4593,16 +4579,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -4610,14 +4596,12 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4626,7 +4610,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -4638,18 +4622,16 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4697,22 +4679,22 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -4721,7 +4703,7 @@
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -4729,21 +4711,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4755,15 +4737,17 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4800,34 +4784,34 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4844,12 +4828,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>135</v>
       </c>
@@ -4858,7 +4844,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4870,16 +4856,16 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4917,19 +4903,19 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4961,16 +4947,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4983,13 +4967,13 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>211</v>
@@ -5000,7 +4984,9 @@
       <c r="N21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -5024,13 +5010,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -5048,31 +5034,31 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -5080,10 +5066,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5091,7 +5077,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -5100,25 +5086,25 @@
         <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -5128,7 +5114,7 @@
         <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>80</v>
@@ -5143,13 +5129,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -5167,7 +5153,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -5182,7 +5168,7 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -5191,7 +5177,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5199,10 +5185,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5225,32 +5211,32 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>80</v>
@@ -5262,13 +5248,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -5286,7 +5272,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5301,7 +5287,7 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -5310,7 +5296,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5318,10 +5304,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5344,20 +5330,18 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5369,7 +5353,7 @@
         <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>80</v>
@@ -5405,7 +5389,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5420,7 +5404,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -5429,7 +5413,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5437,10 +5421,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5448,7 +5432,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -5463,16 +5447,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5486,7 +5470,7 @@
         <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>80</v>
@@ -5522,7 +5506,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5534,10 +5518,10 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -5546,7 +5530,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5554,10 +5538,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5580,16 +5564,16 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5639,7 +5623,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5651,10 +5635,10 @@
         <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -5663,7 +5647,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5671,10 +5655,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5691,72 +5675,76 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5768,19 +5756,19 @@
         <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5788,10 +5776,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5802,106 +5790,104 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="O28" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5909,10 +5895,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5923,32 +5909,28 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5996,31 +5978,31 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -6028,21 +6010,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -6054,15 +6036,17 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -6099,34 +6083,34 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -6143,44 +6127,46 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -6204,46 +6190,44 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -6252,7 +6236,7 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -6260,10 +6244,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6280,25 +6264,25 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6323,11 +6307,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -6345,7 +6331,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6360,7 +6346,7 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -6369,7 +6355,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6377,14 +6363,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6403,20 +6389,18 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6464,7 +6448,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6479,7 +6463,7 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -6488,7 +6472,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6496,21 +6480,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6522,16 +6506,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6581,13 +6565,13 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>100</v>
@@ -6596,7 +6580,7 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -6605,7 +6589,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6613,14 +6597,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6639,16 +6623,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6698,7 +6682,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6713,7 +6697,7 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6722,7 +6706,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6730,10 +6714,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6756,16 +6740,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6815,7 +6799,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6830,7 +6814,7 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6839,7 +6823,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6847,10 +6831,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6861,7 +6845,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6873,18 +6857,20 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6932,22 +6918,22 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6956,7 +6942,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6964,10 +6950,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6978,10 +6964,10 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
@@ -6990,19 +6976,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>259</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -7051,31 +7037,31 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -7083,10 +7069,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7097,32 +7083,28 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>196</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -7170,31 +7152,31 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>198</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>358</v>
+        <v>109</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7202,21 +7184,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -7228,15 +7210,17 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7273,34 +7257,34 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -7317,21 +7301,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -7340,19 +7324,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>206</v>
+        <v>360</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7378,46 +7362,44 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>207</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -7426,7 +7408,7 @@
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7434,10 +7416,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7460,18 +7442,20 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7495,11 +7479,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7517,7 +7503,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7526,13 +7512,13 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>368</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -7541,7 +7527,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7549,10 +7535,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7569,25 +7555,25 @@
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7612,13 +7598,11 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7636,7 +7620,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7651,7 +7635,7 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -7660,7 +7644,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7668,10 +7652,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7679,7 +7663,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>88</v>
@@ -7688,26 +7672,24 @@
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>111</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7731,11 +7713,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7753,7 +7737,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7768,7 +7752,7 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -7777,7 +7761,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>386</v>
+        <v>109</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7785,10 +7769,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7811,7 +7795,7 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>388</v>
+        <v>254</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>389</v>
@@ -7820,7 +7804,7 @@
         <v>390</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>391</v>
+        <v>257</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7870,7 +7854,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7882,10 +7866,10 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -7894,7 +7878,7 @@
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7902,10 +7886,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7919,7 +7903,7 @@
         <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7928,18 +7912,20 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7963,13 +7949,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7987,7 +7973,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7999,19 +7985,19 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>349</v>
+        <v>162</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>102</v>
+        <v>400</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -8019,10 +8005,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8036,29 +8022,25 @@
         <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -8082,13 +8064,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -8106,7 +8088,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>397</v>
+        <v>198</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8115,22 +8097,22 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8138,10 +8120,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8152,7 +8134,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -8164,13 +8146,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8209,31 +8191,29 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -8253,12 +8233,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8267,10 +8249,10 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
@@ -8279,13 +8261,13 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>172</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
+        <v>173</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8324,17 +8306,19 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8343,7 +8327,7 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>144</v>
@@ -8366,14 +8350,12 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>413</v>
-      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8385,7 +8367,7 @@
         <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -8394,13 +8376,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>172</v>
+        <v>410</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>173</v>
+        <v>410</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8451,19 +8433,19 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>207</v>
+        <v>411</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -8483,10 +8465,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8500,25 +8482,29 @@
         <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>200</v>
+        <v>413</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8566,7 +8552,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8575,33 +8561,33 @@
         <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8615,29 +8601,25 @@
         <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>195</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8685,7 +8667,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>417</v>
+        <v>198</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8694,33 +8676,33 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8731,7 +8713,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8743,13 +8725,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8788,31 +8770,29 @@
         <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8832,12 +8812,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8846,7 +8828,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8858,13 +8840,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>172</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>411</v>
+        <v>173</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8903,17 +8885,19 @@
         <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC54" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8922,7 +8906,7 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>144</v>
@@ -8945,14 +8929,12 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8973,13 +8955,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>171</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>172</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>173</v>
+        <v>428</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9030,19 +9012,19 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>207</v>
+        <v>429</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
@@ -9062,10 +9044,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9079,16 +9061,16 @@
         <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>432</v>
@@ -9096,8 +9078,12 @@
       <c r="M56" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -9145,7 +9131,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9154,22 +9140,22 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -9177,10 +9163,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9194,29 +9180,25 @@
         <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>436</v>
+        <v>195</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9264,7 +9246,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>435</v>
+        <v>198</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9273,22 +9255,22 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>442</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9296,10 +9278,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9310,7 +9292,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9322,13 +9304,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9367,31 +9349,29 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -9411,12 +9391,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9425,10 +9407,10 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -9437,13 +9419,13 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>172</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>411</v>
+        <v>173</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9482,17 +9464,19 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9501,7 +9485,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>144</v>
@@ -9524,13 +9508,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
@@ -9552,13 +9536,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>171</v>
+        <v>444</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>172</v>
+        <v>445</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>173</v>
+        <v>446</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9609,7 +9593,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9644,11 +9628,9 @@
         <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9660,7 +9642,7 @@
         <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9669,13 +9651,13 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9726,19 +9708,19 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>207</v>
+        <v>449</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -9758,10 +9740,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9772,28 +9754,32 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9841,31 +9827,31 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9873,10 +9859,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9887,32 +9873,28 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>195</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>196</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9960,31 +9942,31 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>455</v>
+        <v>198</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>461</v>
+        <v>109</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9992,21 +9974,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -10018,15 +10000,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10063,34 +10047,34 @@
         <v>80</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
@@ -10107,12 +10091,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>135</v>
       </c>
@@ -10121,7 +10107,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -10133,13 +10119,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>136</v>
+        <v>462</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>137</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>206</v>
+        <v>464</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>139</v>
@@ -10180,19 +10166,19 @@
         <v>80</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10224,13 +10210,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>135</v>
@@ -10261,7 +10247,7 @@
         <v>469</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>139</v>
+        <v>470</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10311,7 +10297,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10343,16 +10329,16 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10362,7 +10348,7 @@
         <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
@@ -10371,17 +10357,15 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N67" t="s" s="2">
         <v>475</v>
       </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10430,7 +10414,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10445,7 +10429,7 @@
         <v>144</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -10465,11 +10449,9 @@
         <v>476</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10481,25 +10463,29 @@
         <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10511,7 +10497,7 @@
         <v>80</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>80</v>
@@ -10523,13 +10509,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10547,22 +10533,22 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>207</v>
+        <v>484</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -10571,7 +10557,7 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10579,10 +10565,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10590,7 +10576,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>88</v>
@@ -10599,7 +10585,7 @@
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>89</v>
@@ -10608,17 +10594,15 @@
         <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10630,7 +10614,7 @@
         <v>80</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>80</v>
@@ -10642,13 +10626,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10666,7 +10650,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10681,7 +10665,7 @@
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -10690,7 +10674,7 @@
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10698,10 +10682,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10709,7 +10693,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>88</v>
@@ -10724,18 +10708,20 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10747,7 +10733,7 @@
         <v>80</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>80</v>
@@ -10759,13 +10745,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10783,7 +10769,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10798,7 +10784,7 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10807,7 +10793,7 @@
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10815,10 +10801,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10829,7 +10815,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10841,20 +10827,18 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10866,7 +10850,7 @@
         <v>80</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>80</v>
@@ -10902,13 +10886,13 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>100</v>
@@ -10917,7 +10901,7 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>313</v>
+        <v>507</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10926,7 +10910,7 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10934,21 +10918,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10960,16 +10944,16 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10983,7 +10967,7 @@
         <v>80</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>80</v>
@@ -11019,13 +11003,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>100</v>
@@ -11034,7 +11018,7 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -11043,7 +11027,7 @@
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11051,14 +11035,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11077,16 +11061,16 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>334</v>
+        <v>521</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11100,7 +11084,7 @@
         <v>80</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>80</v>
@@ -11136,7 +11120,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11151,7 +11135,7 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -11160,7 +11144,7 @@
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -11168,14 +11152,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11194,16 +11178,16 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>526</v>
+        <v>329</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11217,7 +11201,7 @@
         <v>80</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>80</v>
@@ -11253,7 +11237,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11268,7 +11252,7 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -11277,7 +11261,7 @@
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11285,14 +11269,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11311,16 +11295,16 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11334,7 +11318,7 @@
         <v>80</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>80</v>
@@ -11370,7 +11354,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11385,7 +11369,7 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -11394,7 +11378,7 @@
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11402,14 +11386,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11428,16 +11412,16 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>334</v>
+        <v>544</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11451,7 +11435,7 @@
         <v>80</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>542</v>
+        <v>80</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>80</v>
@@ -11487,7 +11471,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11502,7 +11486,7 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -11511,7 +11495,7 @@
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11519,10 +11503,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11545,18 +11529,20 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11568,7 +11554,7 @@
         <v>80</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>80</v>
+        <v>552</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>80</v>
@@ -11604,7 +11590,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11616,10 +11602,10 @@
         <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>551</v>
+        <v>344</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
@@ -11628,7 +11614,7 @@
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11636,10 +11622,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11659,22 +11645,22 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>262</v>
+        <v>558</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11687,7 +11673,7 @@
         <v>80</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>80</v>
@@ -11699,13 +11685,13 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11723,7 +11709,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11735,19 +11721,19 @@
         <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>349</v>
+        <v>562</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11755,10 +11741,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11781,19 +11767,19 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>227</v>
+        <v>566</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11818,31 +11804,31 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11857,16 +11843,16 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>568</v>
+        <v>109</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11874,10 +11860,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11900,20 +11886,16 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>571</v>
+        <v>195</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>572</v>
+        <v>196</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11961,7 +11943,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>570</v>
+        <v>198</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11970,22 +11952,22 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>576</v>
+        <v>109</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>577</v>
+        <v>80</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11993,21 +11975,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -12019,15 +12001,17 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12064,31 +12048,31 @@
         <v>80</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>109</v>
@@ -12108,24 +12092,26 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
@@ -12134,17 +12120,15 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12181,19 +12165,19 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12208,7 +12192,7 @@
         <v>144</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -12225,14 +12209,12 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12241,10 +12223,10 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>80</v>
@@ -12253,16 +12235,20 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>171</v>
+        <v>578</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>172</v>
+        <v>579</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>582</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12310,7 +12296,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>207</v>
+        <v>577</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12319,22 +12305,22 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>144</v>
+        <v>583</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12342,10 +12328,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12368,19 +12354,19 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12429,7 +12415,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12441,10 +12427,10 @@
         <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>109</v>
@@ -12453,7 +12439,7 @@
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12461,10 +12447,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12475,7 +12461,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12487,20 +12473,16 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>592</v>
+        <v>195</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>593</v>
+        <v>196</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12548,25 +12530,25 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>591</v>
+        <v>198</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>598</v>
+        <v>109</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12580,21 +12562,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12606,15 +12588,17 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12651,34 +12635,34 @@
         <v>80</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>80</v>
@@ -12695,14 +12679,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>135</v>
+        <v>597</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12715,24 +12699,26 @@
         <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>137</v>
+        <v>598</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>206</v>
+        <v>599</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12768,19 +12754,19 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>207</v>
+        <v>600</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12819,7 +12805,7 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>602</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12832,25 +12818,25 @@
         <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O88" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12875,13 +12861,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>80</v>
+        <v>605</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>80</v>
+        <v>606</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -12899,7 +12885,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12911,19 +12897,19 @@
         <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>102</v>
+        <v>607</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12931,10 +12917,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12945,7 +12931,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12957,19 +12943,19 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>563</v>
+        <v>612</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12994,13 +12980,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>610</v>
+        <v>80</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>611</v>
+        <v>80</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -13018,13 +13004,13 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>100</v>
@@ -13033,7 +13019,7 @@
         <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>612</v>
+        <v>288</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>109</v>
@@ -13042,7 +13028,7 @@
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13050,10 +13036,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13064,7 +13050,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -13076,19 +13062,19 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>618</v>
+        <v>351</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13137,22 +13123,22 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>101</v>
+        <v>352</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>109</v>
@@ -13183,7 +13169,7 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -13195,7 +13181,7 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>621</v>
@@ -13207,7 +13193,7 @@
         <v>623</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>356</v>
+        <v>624</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13262,16 +13248,16 @@
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>358</v>
+        <v>456</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>109</v>
@@ -13280,7 +13266,7 @@
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13288,10 +13274,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13314,19 +13300,19 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>456</v>
+        <v>111</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>626</v>
+        <v>393</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>627</v>
       </c>
       <c r="N92" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O92" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13351,13 +13337,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -13375,7 +13361,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13390,7 +13376,7 @@
         <v>101</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>461</v>
+        <v>162</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>109</v>
@@ -13399,7 +13385,7 @@
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13407,10 +13393,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13433,19 +13419,19 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>398</v>
+        <v>631</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>632</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>334</v>
+        <v>633</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13470,13 +13456,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>402</v>
+        <v>80</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13494,7 +13480,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13503,13 +13489,13 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>100</v>
+        <v>635</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>162</v>
+        <v>636</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>109</v>
@@ -13518,7 +13504,7 @@
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13526,10 +13512,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13552,20 +13538,18 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13613,7 +13597,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13622,10 +13606,10 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>640</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>641</v>
@@ -13659,7 +13643,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13671,7 +13655,7 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>259</v>
+        <v>587</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>644</v>
@@ -13680,9 +13664,11 @@
         <v>645</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>647</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13736,25 +13722,25 @@
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>109</v>
+        <v>649</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>647</v>
+        <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13762,10 +13748,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13776,7 +13762,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13788,20 +13774,16 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>592</v>
+        <v>195</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>649</v>
+        <v>196</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>652</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -13849,25 +13831,25 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>648</v>
+        <v>198</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>653</v>
+        <v>109</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>654</v>
+        <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13881,21 +13863,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -13907,15 +13889,17 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -13952,34 +13936,34 @@
         <v>80</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
@@ -13996,14 +13980,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>135</v>
+        <v>597</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14016,24 +14000,26 @@
         <v>80</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>137</v>
+        <v>598</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>206</v>
+        <v>599</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
       </c>
@@ -14069,19 +14055,19 @@
         <v>80</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>207</v>
+        <v>600</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14113,45 +14099,45 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>602</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>604</v>
+        <v>655</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>139</v>
+        <v>656</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>182</v>
+        <v>657</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14176,13 +14162,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -14200,31 +14186,31 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>605</v>
+        <v>653</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>102</v>
+        <v>658</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>80</v>
+        <v>659</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>80</v>
+        <v>660</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14232,10 +14218,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14243,7 +14229,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>88</v>
@@ -14258,19 +14244,19 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14295,13 +14281,13 @@
         <v>80</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
@@ -14319,10 +14305,10 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>88</v>
@@ -14334,16 +14320,16 @@
         <v>101</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14351,21 +14337,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>80</v>
@@ -14377,20 +14363,18 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>278</v>
+        <v>671</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>670</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>80</v>
       </c>
@@ -14438,31 +14422,31 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>672</v>
+        <v>109</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14470,21 +14454,21 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>675</v>
+        <v>80</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>80</v>
@@ -14493,21 +14477,23 @@
         <v>80</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>676</v>
+        <v>264</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>681</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>80</v>
       </c>
@@ -14555,31 +14541,31 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>680</v>
+        <v>636</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>109</v>
+        <v>682</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>681</v>
+        <v>80</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14587,10 +14573,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14601,31 +14587,31 @@
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>269</v>
+        <v>587</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14674,25 +14660,25 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>641</v>
+        <v>688</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>687</v>
+        <v>109</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
@@ -14706,10 +14692,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14720,32 +14706,28 @@
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>592</v>
+        <v>195</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>689</v>
+        <v>196</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>692</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>80</v>
       </c>
@@ -14793,25 +14775,25 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>688</v>
+        <v>198</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>693</v>
+        <v>109</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
@@ -14825,21 +14807,21 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>80</v>
@@ -14851,15 +14833,17 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M105" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -14896,34 +14880,34 @@
         <v>80</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>80</v>
@@ -14940,14 +14924,16 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>690</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>692</v>
+      </c>
       <c r="D106" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14957,7 +14943,7 @@
         <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>80</v>
@@ -14966,17 +14952,15 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>136</v>
+        <v>693</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>137</v>
+        <v>694</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -15013,19 +14997,19 @@
         <v>80</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15040,7 +15024,7 @@
         <v>144</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>80</v>
@@ -15060,13 +15044,11 @@
         <v>696</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>80</v>
+        <v>597</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -15076,25 +15058,29 @@
         <v>79</v>
       </c>
       <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I107" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J107" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>698</v>
+        <v>136</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>699</v>
+        <v>598</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
       </c>
@@ -15142,7 +15128,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>207</v>
+        <v>600</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15157,7 +15143,7 @@
         <v>144</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>80</v>
@@ -15174,46 +15160,44 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>602</v>
+        <v>80</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>136</v>
+        <v>698</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>603</v>
+        <v>699</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>604</v>
+        <v>700</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>80</v>
       </c>
@@ -15261,31 +15245,31 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>605</v>
+        <v>697</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>80</v>
+        <v>702</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>80</v>
@@ -15293,10 +15277,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15319,7 +15303,7 @@
         <v>89</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>703</v>
+        <v>111</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>704</v>
@@ -15328,7 +15312,7 @@
         <v>705</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>706</v>
+        <v>329</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15354,13 +15338,13 @@
         <v>80</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>80</v>
+        <v>705</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>80</v>
+        <v>706</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -15378,7 +15362,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>88</v>
@@ -15390,10 +15374,10 @@
         <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>190</v>
+        <v>707</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>109</v>
@@ -15402,131 +15386,14 @@
         <v>80</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>707</v>
+        <v>80</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO110" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO110">
+  <autoFilter ref="A1:AO109">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15536,7 +15403,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI109">
+  <conditionalFormatting sqref="A2:AI108">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
